--- a/testing/Features/testData/postEcho.xlsx
+++ b/testing/Features/testData/postEcho.xlsx
@@ -539,7 +539,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="4">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
